--- a/Document/02. Design/02. DetailDesign/Detail_Design_Import_UV.xlsx
+++ b/Document/02. Design/02. DetailDesign/Detail_Design_Import_UV.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\My\02. Design\02. DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D063D28-8248-4475-AE92-A062B0DD5DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB158CA-6A66-456D-ACD8-6280CCC7CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15972" xr2:uid="{74488AF9-827E-4D2C-A0BD-EE9BCCF1E2A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74488AF9-827E-4D2C-A0BD-EE9BCCF1E2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Screen Import Candidate" sheetId="1" r:id="rId1"/>
+    <sheet name="Detail Design" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Mã Số</t>
   </si>
@@ -107,9 +108,6 @@
     <t>i09</t>
   </si>
   <si>
-    <t>i10</t>
-  </si>
-  <si>
     <t>Chức Danh</t>
   </si>
   <si>
@@ -189,13 +187,82 @@
   </si>
   <si>
     <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>candidate.name</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Số Điện Thoại</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Nguồn</t>
+  </si>
+  <si>
+    <t>Nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bản Thiết Kế Chi Tiết </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người tạo : </t>
+  </si>
+  <si>
+    <t>ToanHH</t>
+  </si>
+  <si>
+    <t>Ngày Tạo :</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>Function List</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tên Chức Năng</t>
+  </si>
+  <si>
+    <t>Giải Thích</t>
+  </si>
+  <si>
+    <t>Thực hiện hiển thị màn hình của component</t>
+  </si>
+  <si>
+    <t>Danh Sách API</t>
+  </si>
+  <si>
+    <t>Tên API</t>
+  </si>
+  <si>
+    <t>Action trên Screen</t>
+  </si>
+  <si>
+    <t>Danh Sách API bên ngoài</t>
+  </si>
+  <si>
+    <t>Hiển Thị Khởi Tạo(Có điều kiện)</t>
+  </si>
+  <si>
+    <t>Hiển Thị FormNhập Thông Tin Ứng Viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +276,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +311,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,15 +343,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,6 +391,147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED746B7E-092D-0157-8D6D-4F60A678C327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="10486"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7905750" cy="5619750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>343703</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4F0F2E-A657-4CF6-05D4-DC0F5512BCB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="5753903" cy="3820058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10537</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5818E2DC-E026-C808-EF0F-86C06CA64FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="3819525"/>
+          <a:ext cx="7249537" cy="4582164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,503 +831,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369C5243-8756-4DD8-8952-8352939C2885}">
-  <dimension ref="A18:O41"/>
+  <dimension ref="A34:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>3</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <v>4</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <v>6</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <v>7</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <v>8</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2">
-        <v>9</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>50</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2">
-        <v>10</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2">
-        <v>12</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2">
-        <v>13</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2">
-        <v>14</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2">
-        <v>15</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1073,20 +930,26 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1094,93 +957,667 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <v>3</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <v>4</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <v>6</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2">
+        <v>7</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>8</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
+        <v>9</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
+        <v>10</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
+        <v>11</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
+        <v>12</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>13</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <v>15</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
+        <v>16</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C10D888-81AB-4750-B403-B7E49201766A}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/02. Design/02. DetailDesign/Detail_Design_Import_UV.xlsx
+++ b/Document/02. Design/02. DetailDesign/Detail_Design_Import_UV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB158CA-6A66-456D-ACD8-6280CCC7CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B19D60-9520-40D3-8692-D9AC0F9E6893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74488AF9-827E-4D2C-A0BD-EE9BCCF1E2A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74488AF9-827E-4D2C-A0BD-EE9BCCF1E2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Screen Import Candidate" sheetId="1" r:id="rId1"/>
@@ -358,10 +358,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,9 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -489,15 +489,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>10537</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67687</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>19689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -521,7 +521,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="3819525"/>
+          <a:off x="0" y="7820025"/>
           <a:ext cx="7249537" cy="4582164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369C5243-8756-4DD8-8952-8352939C2885}">
   <dimension ref="A34:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C10D888-81AB-4750-B403-B7E49201766A}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,20 +1425,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
@@ -1453,16 +1453,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1471,15 +1471,15 @@
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -1488,54 +1488,54 @@
       <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1544,32 +1544,32 @@
       <c r="C12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -1578,26 +1578,26 @@
       <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
